--- a/medicine/Enfance/Dorothea_Viehmann/Dorothea_Viehmann.xlsx
+++ b/medicine/Enfance/Dorothea_Viehmann/Dorothea_Viehmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothea Viehmann (8 novembre 1755 - 17 novembre 1816) est une conteuse allemande. 
 Ses histoires ont constitué une source importante pour les contes de fées recueillis par les frères Grimm. Ils ont été publiés, pour la plupart, dans le deuxième volume des Contes de l'enfance et du foyer.  
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
